--- a/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>NECB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,105 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>42735</v>
+      </c>
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>40543</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>40178</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>39813</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>53800</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
         <v>19900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="J8" s="3">
         <v>18600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="K8" s="3">
         <v>20000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="L8" s="3">
         <v>22200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>24600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>24400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>21900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,9 +788,24 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,9 +830,24 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,8 +859,13 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,9 +890,24 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,9 +932,24 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,9 +974,24 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,9 +1016,24 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +1042,97 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="K17" s="3">
         <v>9400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>11900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>17400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>16700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="J18" s="3">
         <v>15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="K18" s="3">
         <v>10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
         <v>15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,62 +1144,97 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-14200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="J20" s="3">
         <v>-14400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="K20" s="3">
         <v>-15500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
         <v>-12300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>-9900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>-12400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>-9600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>3200</v>
       </c>
-      <c r="E21" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
         <v>4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>4000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1064,63 +1259,108 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="N24" s="3">
         <v>-2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1385,108 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1511,24 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1553,24 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1595,24 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1637,108 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>14200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="J32" s="3">
         <v>14400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="K32" s="3">
         <v>15500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="L32" s="3">
         <v>12300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="M32" s="3">
         <v>9900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="N32" s="3">
         <v>12400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="O32" s="3">
         <v>9600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1763,113 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43100</v>
+      </c>
+      <c r="H38" s="2">
+        <v>42735</v>
+      </c>
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>40543</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>40178</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>39813</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1881,13 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,62 +1899,97 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>51400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>43200</v>
+      </c>
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>63300</v>
+      </c>
+      <c r="F42" s="3">
+        <v>112000</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>32400</v>
       </c>
-      <c r="E42" s="3">
-        <v>31500</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="K42" s="3">
         <v>48200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="L42" s="3">
         <v>84300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="M42" s="3">
         <v>46800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="N42" s="3">
         <v>96300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="O42" s="3">
         <v>37000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1554,9 +2014,24 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,9 +2056,24 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1608,9 +2098,24 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1635,90 +2140,150 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>19900</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+        <v>3900</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>21700</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>11700</v>
       </c>
-      <c r="E48" s="3">
-        <v>12200</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="K48" s="3">
         <v>12900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="L48" s="3">
         <v>8900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="M48" s="3">
         <v>6800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="N48" s="3">
         <v>8200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="O48" s="3">
         <v>4400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="N49" s="3">
         <v>1900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="O49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +2308,24 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +2350,66 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +2434,66 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1225100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>968200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>955200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>870300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>814800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>734500</v>
+      </c>
+      <c r="J54" s="3">
         <v>515400</v>
       </c>
-      <c r="E54" s="3">
-        <v>458200</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="K54" s="3">
         <v>444200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>489300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="3">
         <v>466000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>527300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>424200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2505,13 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,35 +2523,55 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="L57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="O57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1931,36 +2596,66 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1985,20 +2680,35 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2012,9 +2722,24 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2039,9 +2764,24 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2806,24 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2848,24 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2890,66 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>973700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>814400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>813100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>411600</v>
       </c>
-      <c r="E66" s="3">
-        <v>354100</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="K66" s="3">
         <v>340400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
         <v>382200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>357900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
         <v>419800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="3">
         <v>313700</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2961,13 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2992,24 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +3034,24 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +3076,24 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +3118,66 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>93800</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>55500</v>
       </c>
-      <c r="E72" s="3">
-        <v>54400</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="K72" s="3">
         <v>53900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="L72" s="3">
         <v>57100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>55300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>54100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>57400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +3202,24 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +3244,24 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +3286,66 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>153800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>142100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>129600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>116900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>109500</v>
+      </c>
+      <c r="J76" s="3">
         <v>103800</v>
       </c>
-      <c r="E76" s="3">
-        <v>104200</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="K76" s="3">
         <v>103800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="L76" s="3">
         <v>107100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
         <v>108100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
         <v>107400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
         <v>110500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +3370,113 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43100</v>
+      </c>
+      <c r="H80" s="2">
+        <v>42735</v>
+      </c>
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>40543</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>40178</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>39813</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +3488,55 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
+        <v>900</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
+        <v>800</v>
+      </c>
+      <c r="N83" s="3">
+        <v>800</v>
+      </c>
+      <c r="O83" s="3">
+        <v>700</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +3561,24 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +3603,24 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +3645,24 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +3687,24 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +3729,66 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="L89" s="3">
         <v>5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="M89" s="3">
         <v>6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="O89" s="3">
         <v>3200</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +3800,55 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3873,24 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3915,66 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-56900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="L94" s="3">
         <v>14400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="M94" s="3">
         <v>13100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="N94" s="3">
         <v>-53700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="O94" s="3">
         <v>-84200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3986,55 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="J96" s="3">
         <v>-500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="K96" s="3">
         <v>-700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="L96" s="3">
         <v>-600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="M96" s="3">
         <v>-700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="N96" s="3">
         <v>-700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="O96" s="3">
         <v>-700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +4059,24 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +4101,24 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,36 +4143,66 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>69400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>54900</v>
       </c>
-      <c r="E100" s="3">
-        <v>12500</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-41000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="L100" s="3">
         <v>18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="M100" s="3">
         <v>-64000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="N100" s="3">
         <v>108800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="O100" s="3">
         <v>78400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2984,37 +4224,67 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>76300</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="J102" s="3">
         <v>-17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="K102" s="3">
         <v>-33300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="L102" s="3">
         <v>38100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="M102" s="3">
         <v>-44300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="N102" s="3">
         <v>52200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>NECB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40543</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40178</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39813</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E8" s="3">
         <v>49000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>53800</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
         <v>19900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21900</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,9 +809,12 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,9 +854,12 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,8 +876,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,9 +918,12 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,9 +963,12 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,9 +1008,12 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,9 +1053,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,92 +1072,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>10800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15800</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E18" s="3">
         <v>38200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,50 +1181,54 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21100</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>-14200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9600</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1200,41 +1236,44 @@
         <v>16700</v>
       </c>
       <c r="E21" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F21" s="3">
         <v>17800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>3200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4000</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1274,9 +1313,12 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1284,83 +1326,89 @@
         <v>15600</v>
       </c>
       <c r="E23" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F23" s="3">
         <v>16900</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,93 +1448,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E26" s="3">
         <v>12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2200</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E27" s="3">
         <v>12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1526,9 +1583,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1568,9 +1628,12 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1610,9 +1673,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1652,93 +1718,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E32" s="3">
         <v>22600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21100</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>14200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9600</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E33" s="3">
         <v>12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1778,98 +1853,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E35" s="3">
         <v>12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40543</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40178</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39813</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1886,8 +1970,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1904,8 +1989,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1931,23 +2017,26 @@
         <v>3700</v>
       </c>
       <c r="K41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L41" s="3">
         <v>2800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2500</v>
       </c>
       <c r="M41" s="3">
         <v>2500</v>
       </c>
       <c r="N41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1973,23 +2062,26 @@
         <v>32400</v>
       </c>
       <c r="K42" s="3">
+        <v>32400</v>
+      </c>
+      <c r="L42" s="3">
         <v>48200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>84300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>46800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>96300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37000</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2029,9 +2121,12 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2071,9 +2166,12 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2113,9 +2211,12 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2155,9 +2256,12 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2182,8 +2286,8 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2197,9 +2301,12 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2225,23 +2332,26 @@
         <v>11700</v>
       </c>
       <c r="K48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="L48" s="3">
         <v>12900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4400</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2267,23 +2377,26 @@
         <v>1000</v>
       </c>
       <c r="K49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1800</v>
       </c>
       <c r="M49" s="3">
         <v>1800</v>
       </c>
       <c r="N49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O49" s="3">
         <v>1900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2000</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2323,9 +2436,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2365,9 +2481,12 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2392,8 +2511,8 @@
       <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3">
+        <v>3700</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
@@ -2407,9 +2526,12 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2449,9 +2571,12 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2477,23 +2602,26 @@
         <v>515400</v>
       </c>
       <c r="K54" s="3">
+        <v>515400</v>
+      </c>
+      <c r="L54" s="3">
         <v>444200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>489300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>466000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>527300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>424200</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2510,8 +2638,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2528,8 +2657,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2555,23 +2685,26 @@
         <v>4200</v>
       </c>
       <c r="K57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5200</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2611,9 +2744,12 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2638,8 +2774,8 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2653,9 +2789,12 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2695,9 +2834,12 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2737,9 +2879,12 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2779,9 +2924,12 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2821,9 +2969,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2863,9 +3014,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2905,9 +3059,12 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2933,23 +3090,26 @@
         <v>411600</v>
       </c>
       <c r="K66" s="3">
+        <v>411600</v>
+      </c>
+      <c r="L66" s="3">
         <v>340400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>382200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>357900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>419800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>313700</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2966,8 +3126,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3007,9 +3168,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3049,9 +3213,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3091,9 +3258,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3133,9 +3303,12 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3161,23 +3334,26 @@
         <v>55500</v>
       </c>
       <c r="K72" s="3">
+        <v>55500</v>
+      </c>
+      <c r="L72" s="3">
         <v>53900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>57400</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3217,9 +3393,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3259,9 +3438,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3301,9 +3483,12 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3332,20 +3517,23 @@
         <v>103800</v>
       </c>
       <c r="L76" s="3">
+        <v>103800</v>
+      </c>
+      <c r="M76" s="3">
         <v>107100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>108100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>107400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>110500</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3385,98 +3573,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40543</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40178</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39813</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E81" s="3">
         <v>12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3493,8 +3690,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3502,41 +3700,44 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
-        <v>700</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>700</v>
       </c>
       <c r="M83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N83" s="3">
         <v>800</v>
       </c>
       <c r="O83" s="3">
+        <v>800</v>
+      </c>
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3576,9 +3777,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3618,9 +3822,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3660,9 +3867,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3702,9 +3912,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3744,51 +3957,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>15700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3200</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3805,50 +4024,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3888,9 +4111,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3930,51 +4156,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-178900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-72100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>-56900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>14400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-53700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-84200</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3991,20 +4223,21 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4012,19 +4245,19 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-700</v>
       </c>
       <c r="N96" s="3">
         <v>-700</v>
@@ -4032,9 +4265,12 @@
       <c r="O96" s="3">
         <v>-700</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4074,9 +4310,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4116,9 +4355,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4158,51 +4400,57 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>69400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>54900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-41000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>18100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-64000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>108800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>78400</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4224,11 +4472,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4242,49 +4490,55 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>76300</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-44300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>52200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>NECB</t>
   </si>
@@ -1233,13 +1233,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="E21" s="3">
-        <v>16700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>17800</v>
+        <v>16500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
@@ -1250,8 +1250,8 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
-        <v>3200</v>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -3700,22 +3700,22 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F83" s="3">
         <v>900</v>
       </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="I83" s="3">
         <v>800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3967,25 +3967,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21600</v>
+        <v>15700</v>
       </c>
       <c r="E89" s="3">
-        <v>15700</v>
-      </c>
-      <c r="F89" s="3">
         <v>14300</v>
       </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
+      <c r="I89" s="3">
+        <v>4400</v>
       </c>
       <c r="J89" s="3">
-        <v>4400</v>
+        <v>1700</v>
       </c>
       <c r="K89" s="3">
         <v>1700</v>
@@ -4031,25 +4031,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6500</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F91" s="3">
         <v>-4000</v>
       </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -4166,25 +4166,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-178900</v>
+        <v>-72100</v>
       </c>
       <c r="E94" s="3">
-        <v>-72100</v>
-      </c>
-      <c r="F94" s="3">
         <v>-7400</v>
       </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="I94" s="3">
         <v>-56900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -4230,13 +4230,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2300</v>
+        <v>-1000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="F96" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4245,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="J96" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K96" s="3">
         <v>-500</v>
@@ -4410,25 +4410,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>240400</v>
+        <v>-2000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F100" s="3">
         <v>69400</v>
       </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="I100" s="3">
         <v>54900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4472,8 +4472,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4500,25 +4500,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>83100</v>
+        <v>-58500</v>
       </c>
       <c r="E102" s="3">
-        <v>-58500</v>
-      </c>
-      <c r="F102" s="3">
         <v>76300</v>
       </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
+      <c r="I102" s="3">
+        <v>2500</v>
       </c>
       <c r="J102" s="3">
-        <v>2500</v>
+        <v>-17700</v>
       </c>
       <c r="K102" s="3">
         <v>-17700</v>

--- a/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NECB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>NECB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,117 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40543</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40178</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39813</v>
       </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E8" s="3">
         <v>48400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>49000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>53800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
         <v>19900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21900</v>
       </c>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,9 +818,12 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,9 +866,12 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +889,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -921,9 +934,12 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,9 +982,12 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,9 +1030,12 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,9 +1078,12 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,98 +1098,105 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
         <v>8700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15800</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E18" s="3">
         <v>39700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13000</v>
       </c>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1182,67 +1214,71 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-24100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-22600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-21100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16600</v>
+        <v>35700</v>
       </c>
       <c r="E21" s="3">
-        <v>16500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+        <v>16700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>17800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1256,24 +1292,27 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4000</v>
       </c>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1316,99 +1355,108 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15600</v>
+        <v>34400</v>
       </c>
       <c r="E23" s="3">
         <v>15600</v>
       </c>
       <c r="F23" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G23" s="3">
         <v>16900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1451,99 +1499,108 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E26" s="3">
         <v>11900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2200</v>
       </c>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E27" s="3">
         <v>11900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2200</v>
       </c>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1586,9 +1643,12 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1631,9 +1691,12 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1676,9 +1739,12 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1721,99 +1787,108 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E32" s="3">
         <v>24100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>22600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>21100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>14200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9600</v>
       </c>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E33" s="3">
         <v>11900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2200</v>
       </c>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1856,104 +1931,113 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-      <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E35" s="3">
         <v>11900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2200</v>
       </c>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40543</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40178</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39813</v>
       </c>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1971,8 +2055,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1990,98 +2075,105 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3700</v>
       </c>
       <c r="K41" s="3">
         <v>3700</v>
       </c>
       <c r="L41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M41" s="3">
         <v>2800</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2500</v>
       </c>
       <c r="N41" s="3">
         <v>2500</v>
       </c>
       <c r="O41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E42" s="3">
         <v>145600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>63300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>112000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
-        <v>32400</v>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>32400</v>
       </c>
       <c r="L42" s="3">
+        <v>32400</v>
+      </c>
+      <c r="M42" s="3">
         <v>48200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>84300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>46800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>96300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>37000</v>
       </c>
-      <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2124,9 +2216,12 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2169,9 +2264,12 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2214,9 +2312,12 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2259,38 +2360,41 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E47" s="3">
         <v>19900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3900</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2304,59 +2408,65 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E48" s="3">
         <v>28300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
-        <v>11700</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>11700</v>
       </c>
       <c r="L48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M48" s="3">
         <v>12900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4400</v>
       </c>
-      <c r="Q48" s="3"/>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
@@ -2364,8 +2474,8 @@
       <c r="F49" s="3">
         <v>700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="G49" s="3">
+        <v>700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
@@ -2373,30 +2483,33 @@
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
-        <v>1000</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>1000</v>
       </c>
       <c r="L49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M49" s="3">
         <v>1500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1800</v>
       </c>
       <c r="N49" s="3">
         <v>1800</v>
       </c>
       <c r="O49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P49" s="3">
         <v>1900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2000</v>
       </c>
-      <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2439,9 +2552,12 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-      <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2484,38 +2600,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-      <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>3700</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="L52" s="3">
+        <v>3700</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
@@ -2529,9 +2648,12 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2574,54 +2696,60 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-      <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1225100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>968200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>955200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>870300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>814800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>734500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>515400</v>
       </c>
       <c r="K54" s="3">
         <v>515400</v>
       </c>
       <c r="L54" s="3">
+        <v>515400</v>
+      </c>
+      <c r="M54" s="3">
         <v>444200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>489300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>466000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>527300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>424200</v>
       </c>
-      <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2639,8 +2767,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2658,53 +2787,57 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E57" s="3">
         <v>13500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
-        <v>4200</v>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>4200</v>
       </c>
       <c r="L57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5200</v>
       </c>
-      <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2747,24 +2880,27 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3"/>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2777,8 +2913,8 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2792,9 +2928,12 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2837,9 +2976,12 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3"/>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2850,11 +2992,11 @@
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2882,9 +3024,12 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-      <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2927,9 +3072,12 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3"/>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2972,9 +3120,12 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-      <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3017,9 +3168,12 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-      <c r="Q64" s="3"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3062,54 +3216,60 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-      <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1163000</v>
+      </c>
+      <c r="E66" s="3">
         <v>973700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>814400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>813100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J66" s="3">
-        <v>411600</v>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K66" s="3">
         <v>411600</v>
       </c>
       <c r="L66" s="3">
+        <v>411600</v>
+      </c>
+      <c r="M66" s="3">
         <v>340400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>382200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>357900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>419800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>313700</v>
       </c>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3127,8 +3287,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3171,9 +3332,12 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-      <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3216,9 +3380,12 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-      <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3261,9 +3428,12 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-      <c r="Q70" s="3"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3306,54 +3476,60 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-      <c r="Q71" s="3"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E72" s="3">
         <v>114300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>105300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>93800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
-        <v>55500</v>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K72" s="3">
         <v>55500</v>
       </c>
       <c r="L72" s="3">
+        <v>55500</v>
+      </c>
+      <c r="M72" s="3">
         <v>53900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>57400</v>
       </c>
-      <c r="Q72" s="3"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3396,9 +3572,12 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-      <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3441,9 +3620,12 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-      <c r="Q74" s="3"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3486,32 +3668,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-      <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E76" s="3">
         <v>251400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>142100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>129600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>116900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>109500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>103800</v>
       </c>
       <c r="K76" s="3">
         <v>103800</v>
@@ -3520,20 +3705,23 @@
         <v>103800</v>
       </c>
       <c r="M76" s="3">
+        <v>103800</v>
+      </c>
+      <c r="N76" s="3">
         <v>107100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>108100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>107400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>110500</v>
       </c>
-      <c r="Q76" s="3"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3576,104 +3764,113 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-      <c r="Q77" s="3"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40543</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40178</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39813</v>
       </c>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E81" s="3">
         <v>11900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2200</v>
       </c>
-      <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3691,28 +3888,29 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>800</v>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -3720,24 +3918,27 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>700</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>700</v>
       </c>
       <c r="N83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O83" s="3">
         <v>800</v>
       </c>
       <c r="P83" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3780,9 +3981,12 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-      <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3825,9 +4029,12 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-      <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3870,9 +4077,12 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-      <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3915,9 +4125,12 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-      <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3960,54 +4173,60 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-      <c r="Q88" s="3"/>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F89" s="3">
         <v>15700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>14300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1700</v>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K89" s="3">
         <v>1700</v>
       </c>
       <c r="L89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3200</v>
       </c>
-      <c r="Q89" s="3"/>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3"/>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4025,53 +4244,57 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3"/>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4114,9 +4337,12 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-      <c r="Q92" s="3"/>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3"/>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4159,29 +4385,32 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-      <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-256600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-178900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-72100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>-56900</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -4189,24 +4418,27 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>13100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-53700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-84200</v>
       </c>
-      <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4224,43 +4456,44 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-500</v>
       </c>
       <c r="L96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M96" s="3">
         <v>-700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-700</v>
       </c>
       <c r="O96" s="3">
         <v>-700</v>
@@ -4268,9 +4501,12 @@
       <c r="P96" s="3">
         <v>-700</v>
       </c>
-      <c r="Q96" s="3"/>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4313,9 +4549,12 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-      <c r="Q97" s="3"/>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4358,9 +4597,12 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-      <c r="Q98" s="3"/>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4403,29 +4645,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-      <c r="Q99" s="3"/>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>172100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>240400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>69400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
-        <v>54900</v>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -4433,24 +4678,27 @@
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-41000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>18100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-64000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>108800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>78400</v>
       </c>
-      <c r="Q100" s="3"/>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4472,14 +4720,14 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4493,52 +4741,58 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3"/>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-58500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>76300</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-17700</v>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K102" s="3">
         <v>-17700</v>
       </c>
       <c r="L102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="M102" s="3">
         <v>-33300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-44300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>52200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
